--- a/ValueSet-hemorrhagic-stroke-bleeding-reason-vs.xlsx
+++ b/ValueSet-hemorrhagic-stroke-bleeding-reason-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/hemorrhagic-stroke-bleeding-reason-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/hemorrhagic-stroke-bleeding-reason-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://testSK.org/CodeSystem/hemorrhagic-stroke-bleeding-reason-cs</t>
+    <t>http://tecnomod-um.org/CodeSystem/hemorrhagic-stroke-bleeding-reason-cs</t>
   </si>
 </sst>
 </file>
